--- a/Code/inae_PK.xlsx
+++ b/Code/inae_PK.xlsx
@@ -5,23 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DTPK-CS-22-018\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF3E175-74DF-413F-A259-A1F1B826AFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB78410-1BCC-4E19-903D-FA67AFF5945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12075" yWindow="450" windowWidth="22005" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인애(RTIME)" sheetId="2" r:id="rId1"/>
     <sheet name="인애" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>Arm</t>
   </si>
@@ -44,33 +54,15 @@
     <t>AUClast</t>
   </si>
   <si>
-    <t>valsartan에 대한 dapa는 DDI가 없다</t>
-  </si>
-  <si>
     <t>Cmax</t>
   </si>
   <si>
     <t>Dapagliflozin</t>
   </si>
   <si>
-    <t>dapa에 대한 valsartan의 DDI는 없다.</t>
-  </si>
-  <si>
     <t>Metformin</t>
   </si>
   <si>
-    <t>met에 대한 valsartan의 DDI가 있다</t>
-  </si>
-  <si>
-    <t>met에 대한 valsartan의 DDI가 있다.</t>
-  </si>
-  <si>
-    <t>valsartan에 대한 dapa는 DDI가 없다.</t>
-  </si>
-  <si>
-    <t>met에 대한 dapa는 DDI가 없다.</t>
-  </si>
-  <si>
     <t>&lt;A군 valsa&gt;</t>
   </si>
   <si>
@@ -98,18 +90,9 @@
     <t>B(N= 14)</t>
   </si>
   <si>
-    <t>(0.9640377-0.9934117)</t>
-  </si>
-  <si>
     <t>(0.9200530-1.0448305)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8316580-0.9519572 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7664022-0.9012754 </t>
-  </si>
-  <si>
     <t>C(N= 21)</t>
   </si>
   <si>
@@ -119,9 +102,6 @@
     <t>(0.9704721-1.0958473)</t>
   </si>
   <si>
-    <t>(0.9292600-1.0603761)</t>
-  </si>
-  <si>
     <t>(0.9600207-1.0664176)</t>
   </si>
   <si>
@@ -150,13 +130,838 @@
   </si>
   <si>
     <t>(Rtime 반영안한 상태)</t>
+  </si>
+  <si>
+    <r>
+      <t>valsartan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dapa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>없다</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dapa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> valsartan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>met</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> valsartan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>met</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> valsartan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>valsartan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dapa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>met</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dapa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>군</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> valsa&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>군</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dapa&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>군</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> met&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>군</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> valsa&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>군</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> met&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9191261-0.9848949 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dapa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> valsartan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다(?)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5419408-0.7871466 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6541330-0.8928219 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9103315-1.1595915 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.8445655</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1.1445207 </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.8254220</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1.1062535 </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -168,38 +973,45 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -209,26 +1021,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="10">
@@ -397,7 +1238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,35 +1279,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -475,7 +1292,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,30 +1301,43 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1155,719 +1984,722 @@
   </sheetPr>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="44" customWidth="1"/>
+    <col min="1" max="4" width="12.5703125" style="29"/>
+    <col min="5" max="5" width="24.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10" style="29" customWidth="1"/>
+    <col min="7" max="7" width="44" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="32">
+        <v>1.0130516000000001</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.99010609999999999</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.95144240000000002</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="44">
+        <v>0.95557630000000005</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0.76421479999999997</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.65313619999999994</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="44">
+        <v>1.0505987999999999</v>
+      </c>
+      <c r="E8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="44">
+        <v>1.0312562000000001</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19">
-        <v>1.0130516000000001</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="3" t="s">
+      <c r="D10" s="44">
+        <v>0.98316970000000004</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0.99010609999999999</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0.97861450000000005</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0.98045879999999996</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0.88977680000000003</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.83110740000000005</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="23">
-        <v>1.0505987999999999</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="23">
-        <v>1.0312562000000001</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="24">
-        <v>0.99265559999999997</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="24">
-        <v>1.0118216</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
+      <c r="D11" s="44">
+        <v>1.0274302</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="28"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" spans="1:10" ht="12.75">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+    </row>
+    <row r="39" spans="1:10" ht="12.75">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="1:10" ht="12.75">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+    </row>
+    <row r="41" spans="1:10" ht="12.75">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+    </row>
+    <row r="42" spans="1:10" ht="12.75">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+    </row>
+    <row r="43" spans="1:10" ht="12.75">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+    </row>
+    <row r="44" spans="1:10" ht="12.75">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+    </row>
+    <row r="45" spans="1:10" ht="12.75">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+    </row>
+    <row r="46" spans="1:10" ht="12.75">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+    </row>
+    <row r="47" spans="1:10" ht="12.75">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+    </row>
+    <row r="48" spans="1:10" ht="12.75">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+    </row>
+    <row r="49" spans="1:10" ht="12.75">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1898,7 +2730,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
@@ -1906,7 +2738,7 @@
     <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1923,11 +2755,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1937,28 +2769,28 @@
         <v>1.012977</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>0.99010609999999999</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1967,26 +2799,26 @@
         <v>0.97767289999999996</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="26"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5">
         <v>0.98045879999999996</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="33" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1995,27 +2827,27 @@
         <v>0.88956230000000003</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="8">
         <v>0.83110740000000005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -2025,26 +2857,26 @@
         <v>1.050762</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="26"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="12">
         <v>1.0312562000000001</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="25" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
@@ -2053,61 +2885,61 @@
         <v>0.99296119999999999</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="13">
         <v>1.0118216</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="G13" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" ht="15.75" customHeight="1">
       <c r="I19" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" ht="15.75" customHeight="1">
       <c r="I20" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" ht="15.75" customHeight="1">
       <c r="I21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" ht="15.75" customHeight="1">
       <c r="G24" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="37" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="37" spans="7:10" ht="15.75" customHeight="1">
       <c r="G37" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Code/inae_PK.xlsx
+++ b/Code/inae_PK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DTPK-CS-22-018\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB78410-1BCC-4E19-903D-FA67AFF5945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2D57EF-A8E9-46BD-BD75-D896CD702D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12075" yWindow="450" windowWidth="22005" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1815" windowWidth="22005" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인애(RTIME)" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>Arm</t>
   </si>
@@ -81,9 +81,6 @@
     <t>A(N=  21)</t>
   </si>
   <si>
-    <t>(0.9625974-1.0661504)</t>
-  </si>
-  <si>
     <t>(0.9285674-1.0557231)</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>C(N= 21)</t>
   </si>
   <si>
-    <t>(0.9857451-1.1197194)</t>
-  </si>
-  <si>
     <t>(0.9704721-1.0958473)</t>
   </si>
   <si>
@@ -809,7 +803,40 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">0.9191261-0.9848949 </t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0.9191-0.9849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5419-0.7871 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6541-0.8928 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9103-1.1596 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.8254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1.1063 </t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -895,7 +922,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial Unicode MS"/>
         <family val="1"/>
         <charset val="129"/>
@@ -905,54 +932,255 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">0.5419408-0.7871466 </t>
+    <t xml:space="preserve">0.9160-1.1589 </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">0.6541330-0.8928219 </t>
+    <t xml:space="preserve">0.9333-1.2346 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9675-1.2974 </t>
+  </si>
+  <si>
+    <r>
+      <t>valsartan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dapa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>(?)</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">0.9103315-1.1595915 </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.8431</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1.1330 </t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.8445655</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1.1445207 </t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.8446</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1.1445 </t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.8254220</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1.1062535 </t>
+      <t>met</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dapa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>(?)</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -961,7 +1189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1066,10 +1294,44 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
       <family val="1"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1238,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1279,11 +1541,46 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1292,6 +1589,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1301,42 +1599,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1982,724 +2249,747 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="12.5703125" style="29"/>
-    <col min="5" max="5" width="24.28515625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10" style="29" customWidth="1"/>
-    <col min="7" max="7" width="44" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="12.5703125" style="29"/>
+    <col min="1" max="4" width="12.5703125" style="19"/>
+    <col min="5" max="5" width="24.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="10" style="19" customWidth="1"/>
+    <col min="7" max="7" width="44" style="19" customWidth="1"/>
+    <col min="8" max="11" width="12.5703125" style="19"/>
+    <col min="12" max="12" width="41.7109375" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="12.5703125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="32">
-        <v>1.0130516000000001</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="42" t="s">
+      <c r="D2" s="20">
+        <v>1.0303</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="L2" s="44"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="32"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="L3" s="45"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="33"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.9556</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="32" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="L6" s="44"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="32">
-        <v>0.99010609999999999</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="32" t="s">
+      <c r="D7" s="21">
+        <v>0.65310000000000001</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="L7" s="44"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="32">
-        <v>0.95144240000000002</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="32" t="s">
+      <c r="D8" s="26">
+        <v>1.1204000000000001</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44">
-        <v>0.95557630000000005</v>
-      </c>
-      <c r="E5" s="44" t="s">
+      <c r="D9" s="26">
+        <v>1.0733999999999999</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="31" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="36">
-        <v>0.76421479999999997</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="32" t="s">
+      <c r="D10" s="26">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="36">
-        <v>0.65313619999999994</v>
-      </c>
-      <c r="E7" s="36" t="s">
+      <c r="D11" s="26">
+        <v>1.0274000000000001</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="43" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="44">
-        <v>1.0505987999999999</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="42" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="44">
-        <v>1.0312562000000001</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="44">
-        <v>0.98316970000000004</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="42" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="L14" s="44"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="L16" s="44"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="L18" s="45"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="L19" s="44"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="L20" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="44">
-        <v>1.0274302</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="38" t="s">
+      <c r="H24" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="39" t="s">
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H37" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="1:10" ht="12.75">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="12.75">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="12.75">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="12.75">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="12.75">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" ht="12.75">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="12.75">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" spans="1:10" ht="12.75">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="1:10" ht="12.75">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10" ht="12.75">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:10" ht="12.75">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
     </row>
     <row r="49" spans="1:10" ht="12.75">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2756,10 +3046,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2769,12 +3059,12 @@
         <v>1.012977</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2782,14 +3072,14 @@
         <v>0.99010609999999999</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2799,12 +3089,12 @@
         <v>0.97767289999999996</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2812,12 +3102,12 @@
         <v>0.98045879999999996</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2827,12 +3117,12 @@
         <v>0.88956230000000003</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -2840,14 +3130,14 @@
         <v>0.83110740000000005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -2857,12 +3147,12 @@
         <v>1.050762</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -2870,12 +3160,12 @@
         <v>1.0312562000000001</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -2885,12 +3175,12 @@
         <v>0.99296119999999999</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -2898,7 +3188,7 @@
         <v>1.0118216</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
@@ -2908,38 +3198,38 @@
     </row>
     <row r="19" spans="7:10" ht="15.75" customHeight="1">
       <c r="I19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="7:10" ht="15.75" customHeight="1">
       <c r="I20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="7:10" ht="15.75" customHeight="1">
       <c r="I21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="7:10" ht="15.75" customHeight="1">
       <c r="G24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="37" spans="7:10" ht="15.75" customHeight="1">
       <c r="G37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Code/inae_PK.xlsx
+++ b/Code/inae_PK.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DTPK-CS-22-018\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc\Documents\GitHub\DTPK-CS-22-018\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2D57EF-A8E9-46BD-BD75-D896CD702D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1815" windowWidth="22005" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1815" windowWidth="22005" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="인애(RTIME)" sheetId="2" r:id="rId1"/>
     <sheet name="인애" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -819,119 +818,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.8254</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1.1063 </t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>dapa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> valsartan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> DDI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다(?)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">0.9160-1.1589 </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1044,47 +930,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.8431</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1.1330 </t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.8446</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1.1445 </t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>met</t>
     </r>
     <r>
@@ -1184,12 +1029,169 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>dapa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> valsartan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다(?)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.8431</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1.1330 </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.8254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1.1063 </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.8446</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1.1445 </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1309,13 +1311,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1330,6 +1325,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1552,9 +1562,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1565,6 +1572,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1599,11 +1612,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2245,17 +2255,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="12.5703125" style="19"/>
     <col min="5" max="5" width="24.28515625" style="19" customWidth="1"/>
@@ -2266,7 +2276,7 @@
     <col min="13" max="16384" width="12.5703125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2288,11 +2298,11 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -2302,20 +2312,20 @@
         <v>1.0303</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="18"/>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
-      <c r="L2" s="44"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="28"/>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
@@ -2326,19 +2336,19 @@
         <v>53</v>
       </c>
       <c r="F3" s="18"/>
-      <c r="G3" s="24" t="s">
-        <v>52</v>
+      <c r="G3" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
-      <c r="L3" s="45"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -2351,170 +2361,170 @@
         <v>43</v>
       </c>
       <c r="F4" s="18"/>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="28"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>0.9556</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F5" s="18"/>
-      <c r="G5" s="24" t="s">
-        <v>48</v>
+      <c r="G5" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
-      <c r="L5" s="45"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="27" t="s">
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="45">
         <v>0.76419999999999999</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="L6" s="44"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="28"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="45">
         <v>0.65310000000000001</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="45" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="L7" s="44"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>1.1204000000000001</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>51</v>
+      <c r="E8" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="L8" s="45"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="28"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>1.0733999999999999</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>50</v>
+      <c r="E9" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="L9" s="45"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="27" t="s">
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>0.98319999999999996</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>54</v>
+      <c r="E10" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="24" t="s">
-        <v>55</v>
+      <c r="G10" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="L10" s="44"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="28"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>1.0274000000000001</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="L11" s="45"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2525,24 +2535,24 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="L12" s="45"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="L13" s="45"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -2553,9 +2563,9 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="L14" s="44"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2566,9 +2576,9 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="L15" s="45"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2579,9 +2589,9 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="L16" s="44"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2592,9 +2602,9 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="L17" s="45"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -2605,9 +2615,9 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="L18" s="45"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -2618,9 +2628,9 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="L19" s="44"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -2631,11 +2641,11 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -2647,7 +2657,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -2659,7 +2669,7 @@
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2671,23 +2681,23 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2699,7 +2709,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2711,7 +2721,7 @@
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2723,7 +2733,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2735,7 +2745,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2747,7 +2757,7 @@
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -2759,7 +2769,7 @@
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2771,7 +2781,7 @@
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -2783,7 +2793,7 @@
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2795,7 +2805,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -2807,7 +2817,7 @@
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -2819,7 +2829,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -2831,23 +2841,23 @@
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75">
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+    </row>
+    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -2859,7 +2869,7 @@
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:10" ht="12.75">
+    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -2871,7 +2881,7 @@
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
     </row>
-    <row r="40" spans="1:10" ht="12.75">
+    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -2883,7 +2893,7 @@
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
     </row>
-    <row r="41" spans="1:10" ht="12.75">
+    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -2895,7 +2905,7 @@
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
     </row>
-    <row r="42" spans="1:10" ht="12.75">
+    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -2907,7 +2917,7 @@
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:10" ht="12.75">
+    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -2919,7 +2929,7 @@
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
     </row>
-    <row r="44" spans="1:10" ht="12.75">
+    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -2931,7 +2941,7 @@
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75">
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -2943,7 +2953,7 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75">
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -2955,7 +2965,7 @@
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75">
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2967,7 +2977,7 @@
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75">
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -2979,7 +2989,7 @@
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
     </row>
-    <row r="49" spans="1:10" ht="12.75">
+    <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -3012,7 +3022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3020,7 +3030,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
@@ -3028,7 +3038,7 @@
     <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3045,11 +3055,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3062,9 +3072,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3075,11 +3085,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3092,9 +3102,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="35"/>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3105,9 +3115,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="42" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="41"/>
+      <c r="B6" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3120,9 +3130,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -3133,11 +3143,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -3150,9 +3160,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="35"/>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -3163,9 +3173,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="34" t="s">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41"/>
+      <c r="B10" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -3178,9 +3188,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -3191,45 +3201,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="7:10" ht="15.75" customHeight="1">
+    <row r="19" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="7:10" ht="15.75" customHeight="1">
+    <row r="20" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="7:10" ht="15.75" customHeight="1">
+    <row r="21" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="7:10" ht="15.75" customHeight="1">
+    <row r="24" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-    </row>
-    <row r="37" spans="7:10" ht="15.75" customHeight="1">
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+    </row>
+    <row r="37" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
